--- a/data/pca/factorExposure/factorExposure_2016-09-13.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-09-13.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +711,76 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.008273402317454532</v>
+        <v>0.01358785018476807</v>
       </c>
       <c r="C2">
-        <v>0.05340226975201356</v>
+        <v>0.04359820180161996</v>
       </c>
       <c r="D2">
-        <v>-0.03482602902311784</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.06725907910333075</v>
+      </c>
+      <c r="E2">
+        <v>-0.0523285089387549</v>
+      </c>
+      <c r="F2">
+        <v>0.08524481635507399</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
-        <v>-0.05721756954466447</v>
+        <v>0.03219516121604284</v>
       </c>
       <c r="C3">
-        <v>0.09834187711647845</v>
+        <v>0.08010023383504514</v>
       </c>
       <c r="D3">
-        <v>-0.06891570868012444</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.09539128003493383</v>
+      </c>
+      <c r="E3">
+        <v>-0.06123200593573042</v>
+      </c>
+      <c r="F3">
+        <v>0.01213864816319405</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>-0.06145852996536349</v>
+        <v>0.05757038516932386</v>
       </c>
       <c r="C4">
-        <v>0.05956078737552273</v>
+        <v>0.06594039496853797</v>
       </c>
       <c r="D4">
-        <v>-0.02698279096927234</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.06218825085879283</v>
+      </c>
+      <c r="E4">
+        <v>-0.0508459960229839</v>
+      </c>
+      <c r="F4">
+        <v>0.085948021408396</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +791,236 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>-0.03518128802042494</v>
+        <v>0.03383254996289613</v>
       </c>
       <c r="C6">
-        <v>0.03787282838238358</v>
+        <v>0.03563375701739742</v>
       </c>
       <c r="D6">
-        <v>-0.03211402912159175</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.07055052927847395</v>
+      </c>
+      <c r="E6">
+        <v>-0.0584541766121174</v>
+      </c>
+      <c r="F6">
+        <v>0.07153253919908735</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>-0.0186757253249414</v>
+        <v>0.0194939190522079</v>
       </c>
       <c r="C7">
-        <v>0.03818921250334661</v>
+        <v>0.03736695720438942</v>
       </c>
       <c r="D7">
-        <v>0.002863751763992416</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.03978948712065989</v>
+      </c>
+      <c r="E7">
+        <v>-0.03253916057741282</v>
+      </c>
+      <c r="F7">
+        <v>0.1088460504512497</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>0.001530175605060964</v>
+        <v>0.003788528401988865</v>
       </c>
       <c r="C8">
-        <v>0.02252911686103973</v>
+        <v>0.02780598813475731</v>
       </c>
       <c r="D8">
-        <v>-0.0328132608794538</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.03647299025590656</v>
+      </c>
+      <c r="E8">
+        <v>-0.04129238568342173</v>
+      </c>
+      <c r="F8">
+        <v>0.05137575430914808</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>-0.03180363466190257</v>
+        <v>0.03684984424755214</v>
       </c>
       <c r="C9">
-        <v>0.04251449416341906</v>
+        <v>0.05204437028718598</v>
       </c>
       <c r="D9">
-        <v>-0.01477123242080783</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.04812762093525502</v>
+      </c>
+      <c r="E9">
+        <v>-0.04429175626196442</v>
+      </c>
+      <c r="F9">
+        <v>0.09128479915049099</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>-0.07539980732133744</v>
+        <v>0.1009691076936657</v>
       </c>
       <c r="C10">
-        <v>-0.1923591489774889</v>
+        <v>-0.1921610601444296</v>
       </c>
       <c r="D10">
-        <v>-0.005277897001975932</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.0009958129260819041</v>
+      </c>
+      <c r="E10">
+        <v>-0.04586529497236289</v>
+      </c>
+      <c r="F10">
+        <v>0.03803131799374194</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>-0.03601677760346265</v>
+        <v>0.03541327822045272</v>
       </c>
       <c r="C11">
-        <v>0.05497686256165292</v>
+        <v>0.05136460514103953</v>
       </c>
       <c r="D11">
-        <v>-0.007258465882667692</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.03522332642884704</v>
+      </c>
+      <c r="E11">
+        <v>-0.004933480294473496</v>
+      </c>
+      <c r="F11">
+        <v>0.06481675022060845</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>-0.03322889859275403</v>
+        <v>0.03622519978769995</v>
       </c>
       <c r="C12">
-        <v>0.04781130871220126</v>
+        <v>0.04791487138618734</v>
       </c>
       <c r="D12">
-        <v>-0.002973951755101518</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.02691461897237184</v>
+      </c>
+      <c r="E12">
+        <v>-0.01440335037888915</v>
+      </c>
+      <c r="F12">
+        <v>0.0680663822746604</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>-0.01321812873284738</v>
+        <v>0.01228401263200522</v>
       </c>
       <c r="C13">
-        <v>0.04133319263070202</v>
+        <v>0.04064119276290178</v>
       </c>
       <c r="D13">
-        <v>-0.0197067851080996</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.06676363213032539</v>
+      </c>
+      <c r="E13">
+        <v>-0.06267349073944589</v>
+      </c>
+      <c r="F13">
+        <v>0.114416852532754</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>-0.006251876374947282</v>
+        <v>0.005721569020537431</v>
       </c>
       <c r="C14">
-        <v>0.03180414034460753</v>
+        <v>0.0299823628313198</v>
       </c>
       <c r="D14">
-        <v>0.01458001398853022</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.03086928820680379</v>
+      </c>
+      <c r="E14">
+        <v>-0.0277658552655006</v>
+      </c>
+      <c r="F14">
+        <v>0.09874302739810666</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>-0.001317420148627586</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.003113488229303105</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.003682379418664956</v>
+      </c>
+      <c r="E15">
+        <v>-0.0002596721831426154</v>
+      </c>
+      <c r="F15">
+        <v>0.003083111330575515</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.03286852746381131</v>
+        <v>0.0330487973858349</v>
       </c>
       <c r="C16">
-        <v>0.04343549777175128</v>
+        <v>0.04575835973375186</v>
       </c>
       <c r="D16">
-        <v>-0.008116230063541509</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.03036229100291319</v>
+      </c>
+      <c r="E16">
+        <v>-0.01978015856080624</v>
+      </c>
+      <c r="F16">
+        <v>0.06915794153959764</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1031,16 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1051,176 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
-        <v>-0.02254759567755391</v>
+        <v>0.01633451717801949</v>
       </c>
       <c r="C19">
-        <v>0.05979703073971039</v>
+        <v>0.04973283014418214</v>
       </c>
       <c r="D19">
-        <v>-0.07291944654446289</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.1010408964819318</v>
+      </c>
+      <c r="E19">
+        <v>-0.07942931486879244</v>
+      </c>
+      <c r="F19">
+        <v>0.09136810832724579</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>-0.01407313434271825</v>
+        <v>0.01364281529146548</v>
       </c>
       <c r="C20">
-        <v>0.04262009035691407</v>
+        <v>0.04043200987802011</v>
       </c>
       <c r="D20">
-        <v>-0.02029275104065951</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.0439888311353383</v>
+      </c>
+      <c r="E20">
+        <v>-0.05743884288226141</v>
+      </c>
+      <c r="F20">
+        <v>0.08951640645969174</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>-0.008952702316120205</v>
+        <v>0.008127241613878795</v>
       </c>
       <c r="C21">
-        <v>0.04847474856117782</v>
+        <v>0.04511797303383488</v>
       </c>
       <c r="D21">
-        <v>-0.03606894553434804</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.07299193870058474</v>
+      </c>
+      <c r="E21">
+        <v>-0.0745543155118137</v>
+      </c>
+      <c r="F21">
+        <v>0.13249925247824</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>0.0008437808424864032</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>0.02292283562668333</v>
       </c>
       <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.03532269270489873</v>
+      </c>
+      <c r="E22">
+        <v>-0.01742063967612487</v>
+      </c>
+      <c r="F22">
+        <v>0.01814972692947401</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>0.0009097507740161782</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>0.0230486499738268</v>
       </c>
       <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.0350103415985441</v>
+      </c>
+      <c r="E23">
+        <v>-0.01771394822151088</v>
+      </c>
+      <c r="F23">
+        <v>0.01801685023735438</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>-0.02776961922272813</v>
+        <v>0.03247655718674137</v>
       </c>
       <c r="C24">
-        <v>0.04846567689788159</v>
+        <v>0.05374875663541686</v>
       </c>
       <c r="D24">
-        <v>-0.004327890788109383</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.0287123162395883</v>
+      </c>
+      <c r="E24">
+        <v>-0.01722166591708159</v>
+      </c>
+      <c r="F24">
+        <v>0.07772371185719645</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>-0.04152220630751018</v>
+        <v>0.04227700550314938</v>
       </c>
       <c r="C25">
-        <v>0.06037457343138909</v>
+        <v>0.05786499179811915</v>
       </c>
       <c r="D25">
-        <v>0.005483288903919216</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.02637671701318046</v>
+      </c>
+      <c r="E25">
+        <v>-0.01201991244674943</v>
+      </c>
+      <c r="F25">
+        <v>0.07850493589402384</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>-0.01227024470368491</v>
+        <v>0.01362052948923699</v>
       </c>
       <c r="C26">
-        <v>0.0166581561935024</v>
+        <v>0.01651413829502126</v>
       </c>
       <c r="D26">
-        <v>-0.001491587024838357</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.02830604735195744</v>
+      </c>
+      <c r="E26">
+        <v>-0.02922841673890928</v>
+      </c>
+      <c r="F26">
+        <v>0.07437352511588796</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1231,156 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>-0.08942605695598412</v>
+        <v>0.1358288453102512</v>
       </c>
       <c r="C28">
-        <v>-0.2251645381622736</v>
+        <v>-0.2416961452511263</v>
       </c>
       <c r="D28">
-        <v>-0.001940028936576763</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.01464863595784511</v>
+      </c>
+      <c r="E28">
+        <v>-0.04790248352094157</v>
+      </c>
+      <c r="F28">
+        <v>0.05336631948142678</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>-0.008383960955203983</v>
+        <v>0.00657941857849652</v>
       </c>
       <c r="C29">
-        <v>0.02590593428698549</v>
+        <v>0.02586488126067332</v>
       </c>
       <c r="D29">
-        <v>0.01489780629329099</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.02499174664116392</v>
+      </c>
+      <c r="E29">
+        <v>-0.02994595731599308</v>
+      </c>
+      <c r="F29">
+        <v>0.09052823294022831</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>-0.05035427072591707</v>
+        <v>0.04103317198414666</v>
       </c>
       <c r="C30">
-        <v>0.05667634199731524</v>
+        <v>0.06444274248428952</v>
       </c>
       <c r="D30">
-        <v>-0.05181036681919485</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.1100681953061643</v>
+      </c>
+      <c r="E30">
+        <v>-0.03982536102309709</v>
+      </c>
+      <c r="F30">
+        <v>0.1023597206779094</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>-0.04884506073360194</v>
+        <v>0.05472163126455187</v>
       </c>
       <c r="C31">
-        <v>0.03497601890724181</v>
+        <v>0.05391313021143017</v>
       </c>
       <c r="D31">
-        <v>0.0114010273973028</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.005956867826192562</v>
+      </c>
+      <c r="E31">
+        <v>-0.04952371865827963</v>
+      </c>
+      <c r="F31">
+        <v>0.08144788008983368</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>0.006718585267766065</v>
+        <v>0.004887535455335918</v>
       </c>
       <c r="C32">
-        <v>0.04552065230796414</v>
+        <v>0.03343231083041629</v>
       </c>
       <c r="D32">
-        <v>-0.02462232659064036</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.05137398533117247</v>
+      </c>
+      <c r="E32">
+        <v>-0.02336136731472304</v>
+      </c>
+      <c r="F32">
+        <v>0.07530320943572903</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>-0.02690799780670744</v>
+        <v>0.02447327597041318</v>
       </c>
       <c r="C33">
-        <v>0.05853876716704472</v>
+        <v>0.05422142084001752</v>
       </c>
       <c r="D33">
-        <v>-0.03399351910848255</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.08519531404386105</v>
+      </c>
+      <c r="E33">
+        <v>-0.0506353086761301</v>
+      </c>
+      <c r="F33">
+        <v>0.1277755638061889</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>-0.04286163149112505</v>
+        <v>0.04058828294996289</v>
       </c>
       <c r="C34">
-        <v>0.06101961744935877</v>
+        <v>0.06355551424105631</v>
       </c>
       <c r="D34">
-        <v>0.00236275968747537</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.03530322410305512</v>
+      </c>
+      <c r="E34">
+        <v>0.006740456856191773</v>
+      </c>
+      <c r="F34">
+        <v>0.07510755563576674</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1391,36 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>-0.009333592931989572</v>
+        <v>0.01394474395201725</v>
       </c>
       <c r="C36">
-        <v>0.01378157689942665</v>
+        <v>0.01221178653443345</v>
       </c>
       <c r="D36">
-        <v>-0.002089124271795649</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.03039948606755157</v>
+      </c>
+      <c r="E36">
+        <v>-0.03623832896068647</v>
+      </c>
+      <c r="F36">
+        <v>0.0826910027802556</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,108 +1431,156 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
-        <v>-0.02984948765852617</v>
+        <v>0.02495980819372434</v>
       </c>
       <c r="C38">
-        <v>0.02965537428906626</v>
+        <v>0.02522616739512414</v>
       </c>
       <c r="D38">
-        <v>-0.001554251991886851</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.02883771151683794</v>
+      </c>
+      <c r="E38">
+        <v>-0.03516466079933003</v>
+      </c>
+      <c r="F38">
+        <v>0.06797141249296983</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>-0.03869001445916346</v>
+        <v>0.03820367412218356</v>
       </c>
       <c r="C39">
-        <v>0.07187902114845129</v>
+        <v>0.06856003773650855</v>
       </c>
       <c r="D39">
-        <v>-0.02123973403984739</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.05417856112298343</v>
+      </c>
+      <c r="E39">
+        <v>-0.01836734423320567</v>
+      </c>
+      <c r="F39">
+        <v>0.09076044570961214</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>-0.01755780744176724</v>
+        <v>0.01707308777539277</v>
       </c>
       <c r="C40">
-        <v>0.03094137998977346</v>
+        <v>0.03754260487228041</v>
       </c>
       <c r="D40">
-        <v>-0.03686938168326983</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.04385713934927557</v>
+      </c>
+      <c r="E40">
+        <v>-0.07456662963898511</v>
+      </c>
+      <c r="F40">
+        <v>0.08891614219383071</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>-0.008569152562113989</v>
+        <v>0.01797419690016252</v>
       </c>
       <c r="C41">
-        <v>0.007522579035403339</v>
+        <v>0.006288522749481574</v>
       </c>
       <c r="D41">
-        <v>-0.001259145623178371</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.01893963240855428</v>
+      </c>
+      <c r="E41">
+        <v>-0.03863380616101615</v>
+      </c>
+      <c r="F41">
+        <v>0.07046791189725843</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
-        <v>-0.002231373780699203</v>
+        <v>0.001460314658579823</v>
       </c>
       <c r="C42">
-        <v>0.004787645434016868</v>
+        <v>0.002610415248571208</v>
       </c>
       <c r="D42">
-        <v>-0.008973431275212223</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>0.001615568571847988</v>
+      </c>
+      <c r="E42">
+        <v>-0.008001876749673665</v>
+      </c>
+      <c r="F42">
+        <v>-0.006279776826577209</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>-0.03109264514120109</v>
+        <v>0.0293502462445732</v>
       </c>
       <c r="C43">
-        <v>0.02287887729147957</v>
+        <v>0.02124000346251016</v>
       </c>
       <c r="D43">
-        <v>-0.01232542395320396</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.04323661847497862</v>
+      </c>
+      <c r="E43">
+        <v>-0.04414752302744395</v>
+      </c>
+      <c r="F43">
+        <v>0.0833607028447538</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>-0.01607259826692859</v>
+        <v>0.01470530634621051</v>
       </c>
       <c r="C44">
-        <v>0.05657350966483458</v>
+        <v>0.05192098160381999</v>
       </c>
       <c r="D44">
-        <v>-0.01761066076348294</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.04261952157015395</v>
+      </c>
+      <c r="E44">
+        <v>-0.05796487369997082</v>
+      </c>
+      <c r="F44">
+        <v>0.09038106347694391</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1591,76 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>0.0001177629700114928</v>
+        <v>0.007653234563064114</v>
       </c>
       <c r="C46">
-        <v>0.02357994929904471</v>
+        <v>0.02553834887431829</v>
       </c>
       <c r="D46">
-        <v>0.01963304158314797</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.01547200252825823</v>
+      </c>
+      <c r="E46">
+        <v>-0.03591082179210236</v>
+      </c>
+      <c r="F46">
+        <v>0.1045753255411409</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>-0.07954308472083776</v>
+        <v>0.08590354058620545</v>
       </c>
       <c r="C47">
-        <v>0.07325852565124268</v>
+        <v>0.08063352095446454</v>
       </c>
       <c r="D47">
-        <v>0.007303406943609579</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.01486060370478846</v>
+      </c>
+      <c r="E47">
+        <v>-0.05526005338428076</v>
+      </c>
+      <c r="F47">
+        <v>0.07700840004491551</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>-0.01775874703803615</v>
+        <v>0.01597617541537901</v>
       </c>
       <c r="C48">
-        <v>0.01257125636837576</v>
+        <v>0.01769637963456698</v>
       </c>
       <c r="D48">
-        <v>0.006401151419078141</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.02098486457447364</v>
+      </c>
+      <c r="E48">
+        <v>-0.04635183260397513</v>
+      </c>
+      <c r="F48">
+        <v>0.09719562856725521</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1671,56 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>-0.08568698199336798</v>
+        <v>0.07276834517959128</v>
       </c>
       <c r="C50">
-        <v>0.07110348437202774</v>
+        <v>0.07062929845833936</v>
       </c>
       <c r="D50">
-        <v>0.01782209543344834</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.002642612094942327</v>
+      </c>
+      <c r="E50">
+        <v>-0.05319873225166312</v>
+      </c>
+      <c r="F50">
+        <v>0.06865185942251165</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
-        <v>-0.01061558766014271</v>
+        <v>0.01053234801584816</v>
       </c>
       <c r="C51">
-        <v>0.04450459769321208</v>
+        <v>0.03354713718501773</v>
       </c>
       <c r="D51">
-        <v>-0.008132608865663799</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.05053732963713919</v>
+      </c>
+      <c r="E51">
+        <v>-0.0218848154230645</v>
+      </c>
+      <c r="F51">
+        <v>0.08572227305589571</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,136 +1731,196 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>-0.08032024096074909</v>
+        <v>0.09197647622670035</v>
       </c>
       <c r="C53">
-        <v>0.07458360760155497</v>
+        <v>0.08822669759076351</v>
       </c>
       <c r="D53">
-        <v>0.0258104847089466</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.03671825737503263</v>
+      </c>
+      <c r="E53">
+        <v>-0.05448515017766068</v>
+      </c>
+      <c r="F53">
+        <v>0.08648080234483697</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>-0.03058270565324356</v>
+        <v>0.02739265293667801</v>
       </c>
       <c r="C54">
-        <v>0.02258968847299015</v>
+        <v>0.0271246066925</v>
       </c>
       <c r="D54">
-        <v>-0.001082040232000397</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.03408440443885126</v>
+      </c>
+      <c r="E54">
+        <v>-0.03991246117385365</v>
+      </c>
+      <c r="F54">
+        <v>0.09492075515754027</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>-0.0706325414999059</v>
+        <v>0.08301779814882397</v>
       </c>
       <c r="C55">
-        <v>0.06660257546342686</v>
+        <v>0.07221409128820214</v>
       </c>
       <c r="D55">
-        <v>0.0294717779491353</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.04418844661932794</v>
+      </c>
+      <c r="E55">
+        <v>-0.04515466129938638</v>
+      </c>
+      <c r="F55">
+        <v>0.06412716644050413</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>-0.1470108246384099</v>
+        <v>0.1449394445320495</v>
       </c>
       <c r="C56">
-        <v>0.09407614021312674</v>
+        <v>0.1065365932145274</v>
       </c>
       <c r="D56">
-        <v>0.0319650760466078</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.04733190801112682</v>
+      </c>
+      <c r="E56">
+        <v>-0.04930419815967862</v>
+      </c>
+      <c r="F56">
+        <v>0.04986372427800304</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
-        <v>-0.001490831657937309</v>
+        <v>0.0005220278923979842</v>
       </c>
       <c r="C57">
-        <v>0.003779008964183611</v>
+        <v>0.002193369096703724</v>
       </c>
       <c r="D57">
-        <v>-0.01798141678501939</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>0.01613810456403429</v>
+      </c>
+      <c r="E57">
+        <v>-0.007076324116540664</v>
+      </c>
+      <c r="F57">
+        <v>0.0099927217594104</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>-0.07510992073796051</v>
+        <v>0.03030775939494586</v>
       </c>
       <c r="C58">
-        <v>0.02205557223575906</v>
+        <v>0.03885779439927464</v>
       </c>
       <c r="D58">
-        <v>-0.9359329387600693</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.4953222654923151</v>
+      </c>
+      <c r="E58">
+        <v>-0.6707653344880218</v>
+      </c>
+      <c r="F58">
+        <v>-0.4729393571315476</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>-0.1377511404520719</v>
+        <v>0.1483012948519334</v>
       </c>
       <c r="C59">
-        <v>-0.2046168563362239</v>
+        <v>-0.1860050075271755</v>
       </c>
       <c r="D59">
-        <v>-0.01448973331003888</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.03171573746486118</v>
+      </c>
+      <c r="E59">
+        <v>-0.02514916088116088</v>
+      </c>
+      <c r="F59">
+        <v>0.02152121918732172</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>-0.3120717783914174</v>
+        <v>0.2815813420006507</v>
       </c>
       <c r="C60">
-        <v>0.09239288835330174</v>
+        <v>0.09812109929511686</v>
       </c>
       <c r="D60">
-        <v>-0.008680743161321662</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.1971162099420516</v>
+      </c>
+      <c r="E60">
+        <v>0.2814052717457533</v>
+      </c>
+      <c r="F60">
+        <v>-0.1144299874437303</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>-0.03660741449892353</v>
+        <v>0.03999684323435568</v>
       </c>
       <c r="C61">
-        <v>0.06429944292226109</v>
+        <v>0.06238463694412572</v>
       </c>
       <c r="D61">
-        <v>-0.01249201462816759</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.04865468346729093</v>
+      </c>
+      <c r="E61">
+        <v>-0.02210222786936692</v>
+      </c>
+      <c r="F61">
+        <v>0.0811344662284566</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +1931,156 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>-0.01400726020511435</v>
+        <v>0.01500461114952978</v>
       </c>
       <c r="C63">
-        <v>0.03568279184721209</v>
+        <v>0.0325103133200751</v>
       </c>
       <c r="D63">
-        <v>-0.0002972450058817855</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.02527309661350356</v>
+      </c>
+      <c r="E63">
+        <v>-0.03875614083403382</v>
+      </c>
+      <c r="F63">
+        <v>0.07603941506765506</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>-0.05130709225853205</v>
+        <v>0.05535152520088989</v>
       </c>
       <c r="C64">
-        <v>0.03592074747571853</v>
+        <v>0.05417998748803956</v>
       </c>
       <c r="D64">
-        <v>0.007251611790798486</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.008723081210460277</v>
+      </c>
+      <c r="E64">
+        <v>-0.02187757116965346</v>
+      </c>
+      <c r="F64">
+        <v>0.08603513179534676</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>-0.09439868831677281</v>
+        <v>0.06688551990694329</v>
       </c>
       <c r="C65">
-        <v>0.03953289388767455</v>
+        <v>0.03835654445075279</v>
       </c>
       <c r="D65">
-        <v>-0.04082402697723065</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.08716883759224958</v>
+      </c>
+      <c r="E65">
+        <v>-0.03132759837228456</v>
+      </c>
+      <c r="F65">
+        <v>0.021856543387977</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>-0.05879975767766538</v>
+        <v>0.05022042021778163</v>
       </c>
       <c r="C66">
-        <v>0.105504259800892</v>
+        <v>0.09149664992587012</v>
       </c>
       <c r="D66">
-        <v>-0.03301181446952552</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.08112654072264229</v>
+      </c>
+      <c r="E66">
+        <v>-0.01965141443692373</v>
+      </c>
+      <c r="F66">
+        <v>0.09040275752435467</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>-0.05288793149226965</v>
+        <v>0.04747864491595105</v>
       </c>
       <c r="C67">
-        <v>0.03476107536278861</v>
+        <v>0.03089208119137883</v>
       </c>
       <c r="D67">
-        <v>0.004507755406528507</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.01494005998334017</v>
+      </c>
+      <c r="E67">
+        <v>-0.01863633442899645</v>
+      </c>
+      <c r="F67">
+        <v>0.0532496346941097</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>-0.1174643631003945</v>
+        <v>0.1529638877715405</v>
       </c>
       <c r="C68">
-        <v>-0.2881277914958243</v>
+        <v>-0.2504591819207527</v>
       </c>
       <c r="D68">
-        <v>0.003486763991224057</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.01744994829959475</v>
+      </c>
+      <c r="E68">
+        <v>-0.04168475016651157</v>
+      </c>
+      <c r="F68">
+        <v>0.0175996707823619</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>-0.08387835237645123</v>
+        <v>0.08699204425238556</v>
       </c>
       <c r="C69">
-        <v>0.07076676658832919</v>
+        <v>0.08676367918345258</v>
       </c>
       <c r="D69">
-        <v>0.03353721973795817</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.008685545357225587</v>
+      </c>
+      <c r="E69">
+        <v>-0.03322579405682666</v>
+      </c>
+      <c r="F69">
+        <v>0.09713900406257669</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,192 +2091,276 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>-0.1207161380352028</v>
+        <v>0.1454308840954041</v>
       </c>
       <c r="C71">
-        <v>-0.2489571097881454</v>
+        <v>-0.2317544587764666</v>
       </c>
       <c r="D71">
-        <v>-0.02346806152066106</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.01599629756877328</v>
+      </c>
+      <c r="E71">
+        <v>-0.06014228712710332</v>
+      </c>
+      <c r="F71">
+        <v>0.05461493962835257</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>-0.08546252037322027</v>
+        <v>0.0957746037465365</v>
       </c>
       <c r="C72">
-        <v>0.04938744641248868</v>
+        <v>0.05738962723470002</v>
       </c>
       <c r="D72">
-        <v>0.01025854458465296</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.0206266282437307</v>
+      </c>
+      <c r="E72">
+        <v>-0.01037199210353909</v>
+      </c>
+      <c r="F72">
+        <v>0.08012852130713774</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>-0.4375089253999687</v>
+        <v>0.3463026424785908</v>
       </c>
       <c r="C73">
-        <v>0.06466723731050072</v>
+        <v>0.0791485052483263</v>
       </c>
       <c r="D73">
-        <v>-0.08467786919009011</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.419436404047452</v>
+      </c>
+      <c r="E73">
+        <v>0.4969957543764004</v>
+      </c>
+      <c r="F73">
+        <v>-0.2917617317248634</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>-0.1107398555409981</v>
+        <v>0.1102523978615844</v>
       </c>
       <c r="C74">
-        <v>0.1109738387205888</v>
+        <v>0.1019427752080013</v>
       </c>
       <c r="D74">
-        <v>0.00589026257074322</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.02755435301180289</v>
+      </c>
+      <c r="E74">
+        <v>-0.06383473656342196</v>
+      </c>
+      <c r="F74">
+        <v>0.05423663303717689</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>-0.2480024275708471</v>
+        <v>0.25518814494991</v>
       </c>
       <c r="C75">
-        <v>0.1250038692221232</v>
+        <v>0.1400569251132435</v>
       </c>
       <c r="D75">
-        <v>0.04851848868559816</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.1279716153487275</v>
+      </c>
+      <c r="E75">
+        <v>-0.07642583433358709</v>
+      </c>
+      <c r="F75">
+        <v>0.01537054973844821</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
-        <v>-0.1109686980707558</v>
+        <v>0.1276727212675438</v>
       </c>
       <c r="C76">
-        <v>0.1010587709150773</v>
+        <v>0.1058013698229381</v>
       </c>
       <c r="D76">
-        <v>0.0287172110645982</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.05663758552941481</v>
+      </c>
+      <c r="E76">
+        <v>-0.06878319765049473</v>
+      </c>
+      <c r="F76">
+        <v>0.06662149873934331</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>-0.07723300264847478</v>
+        <v>0.06231661001865629</v>
       </c>
       <c r="C77">
-        <v>0.05845766389721122</v>
+        <v>0.0699095234051188</v>
       </c>
       <c r="D77">
-        <v>-0.05149539998626628</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.06766322743505718</v>
+      </c>
+      <c r="E77">
+        <v>-0.06664899018898043</v>
+      </c>
+      <c r="F77">
+        <v>0.1169212561534581</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>-0.04450275584101451</v>
+        <v>0.04356622133123795</v>
       </c>
       <c r="C78">
-        <v>0.04245849852535454</v>
+        <v>0.05418467904443739</v>
       </c>
       <c r="D78">
-        <v>-0.01793921339018644</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.07475500991768426</v>
+      </c>
+      <c r="E78">
+        <v>-0.02228603427573553</v>
+      </c>
+      <c r="F78">
+        <v>0.1050723858056274</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>0.02314511356074329</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>0.03954303204439643</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.05796209517248162</v>
+      </c>
+      <c r="E79">
+        <v>-0.05159584583736322</v>
+      </c>
+      <c r="F79">
+        <v>0.03391975322612609</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>-0.04353000024789477</v>
+        <v>0.03381708685245369</v>
       </c>
       <c r="C80">
-        <v>0.05656734455301848</v>
+        <v>0.05457871105171318</v>
       </c>
       <c r="D80">
-        <v>-0.02555877735041362</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.04824898946750023</v>
+      </c>
+      <c r="E80">
+        <v>-0.008011321753045109</v>
+      </c>
+      <c r="F80">
+        <v>0.03106613676194388</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>-0.1413941989921981</v>
+        <v>0.1396259577126061</v>
       </c>
       <c r="C81">
-        <v>0.0803273015476106</v>
+        <v>0.09879468727569808</v>
       </c>
       <c r="D81">
-        <v>0.02395838665366424</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.0935631168582317</v>
+      </c>
+      <c r="E81">
+        <v>-0.08303846081029097</v>
+      </c>
+      <c r="F81">
+        <v>0.01993819808958017</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>-0.1267258394476319</v>
+        <v>0.1949669318697118</v>
       </c>
       <c r="C82">
-        <v>0.06065426898653978</v>
+        <v>0.1392582973156289</v>
       </c>
       <c r="D82">
-        <v>0.1160883473524827</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.2283153338387148</v>
+      </c>
+      <c r="E82">
+        <v>-0.01972645193650989</v>
+      </c>
+      <c r="F82">
+        <v>0.08266790125867746</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>-0.02993383084308879</v>
+        <v>0.02659895927236887</v>
       </c>
       <c r="C83">
-        <v>0.01986532445506965</v>
+        <v>0.04059551582161911</v>
       </c>
       <c r="D83">
-        <v>-0.01633349650212373</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.03557137054911796</v>
+      </c>
+      <c r="E83">
+        <v>-0.007540693251210468</v>
+      </c>
+      <c r="F83">
+        <v>0.04721221583190759</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1867,164 +2371,236 @@
       <c r="D84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>-0.2256985171222962</v>
+        <v>0.2036435799007322</v>
       </c>
       <c r="C85">
-        <v>0.1125193635744088</v>
+        <v>0.1243259851263084</v>
       </c>
       <c r="D85">
-        <v>0.09175186298718828</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.1038738211321899</v>
+      </c>
+      <c r="E85">
+        <v>-0.006460712373354479</v>
+      </c>
+      <c r="F85">
+        <v>-0.02237826888042061</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>-0.00384045550317082</v>
+        <v>0.01212751478901924</v>
       </c>
       <c r="C86">
-        <v>0.02457438081904909</v>
+        <v>0.03028682244326883</v>
       </c>
       <c r="D86">
-        <v>-0.02784640974274011</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.07466966361661921</v>
+      </c>
+      <c r="E86">
+        <v>-0.04335006239494308</v>
+      </c>
+      <c r="F86">
+        <v>0.1369526379126635</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>-0.01841978380271617</v>
+        <v>0.02026457428008599</v>
       </c>
       <c r="C87">
-        <v>0.0166468108178462</v>
+        <v>0.02227192111816124</v>
       </c>
       <c r="D87">
-        <v>-0.09114078474216115</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.09467459787138299</v>
+      </c>
+      <c r="E87">
+        <v>-0.0853830661625222</v>
+      </c>
+      <c r="F87">
+        <v>0.09251235136716286</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>-0.09963524623328363</v>
+        <v>0.08991909465943468</v>
       </c>
       <c r="C88">
-        <v>0.07351215657802551</v>
+        <v>0.06408758265885707</v>
       </c>
       <c r="D88">
-        <v>0.01818099205359053</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.01180137403501925</v>
+      </c>
+      <c r="E88">
+        <v>-0.0324231447514471</v>
+      </c>
+      <c r="F88">
+        <v>0.06686419885478068</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>-0.190803710893643</v>
+        <v>0.2281085485643028</v>
       </c>
       <c r="C89">
-        <v>-0.3714079566405822</v>
+        <v>-0.3785593815867253</v>
       </c>
       <c r="D89">
-        <v>0.02598009921351709</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.01246941331071471</v>
+      </c>
+      <c r="E89">
+        <v>-0.04243269183994629</v>
+      </c>
+      <c r="F89">
+        <v>0.1021263300006586</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>-0.1791768976012648</v>
+        <v>0.2048989575346234</v>
       </c>
       <c r="C90">
-        <v>-0.3400467961872853</v>
+        <v>-0.3129763492618825</v>
       </c>
       <c r="D90">
-        <v>0.01322303277812444</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.01167029967573632</v>
+      </c>
+      <c r="E90">
+        <v>-0.06641144346676213</v>
+      </c>
+      <c r="F90">
+        <v>0.04900516850083377</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>-0.1974164050064706</v>
+        <v>0.1883677278371851</v>
       </c>
       <c r="C91">
-        <v>0.1186429305903795</v>
+        <v>0.141349358873085</v>
       </c>
       <c r="D91">
-        <v>0.04792298893228451</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.1014308352302764</v>
+      </c>
+      <c r="E91">
+        <v>-0.07266854952689229</v>
+      </c>
+      <c r="F91">
+        <v>0.03870257104822512</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>-0.1722330336657406</v>
+        <v>0.1845221974924441</v>
       </c>
       <c r="C92">
-        <v>-0.2899164725135817</v>
+        <v>-0.2797056261288843</v>
       </c>
       <c r="D92">
-        <v>0.01439666373724042</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.002760042817326636</v>
+      </c>
+      <c r="E92">
+        <v>-0.07150291148397327</v>
+      </c>
+      <c r="F92">
+        <v>0.07459986956911618</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>-0.204567283564745</v>
+        <v>0.2286583972632832</v>
       </c>
       <c r="C93">
-        <v>-0.3334419998286273</v>
+        <v>-0.318204379313391</v>
       </c>
       <c r="D93">
-        <v>0.005810566677982219</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.001181947054345917</v>
+      </c>
+      <c r="E93">
+        <v>-0.05029001132545578</v>
+      </c>
+      <c r="F93">
+        <v>0.04245937842317442</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>-0.3171263367656396</v>
+        <v>0.3394934259456359</v>
       </c>
       <c r="C94">
-        <v>0.1758387209765419</v>
+        <v>0.1908188139818152</v>
       </c>
       <c r="D94">
-        <v>0.1921120777944896</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.4753206673045891</v>
+      </c>
+      <c r="E94">
+        <v>-0.1519316533302821</v>
+      </c>
+      <c r="F94">
+        <v>-0.4303007198619226</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>-0.08988168780080137</v>
+        <v>0.08255231203173241</v>
       </c>
       <c r="C95">
-        <v>0.06823522384721004</v>
+        <v>0.07136953320708884</v>
       </c>
       <c r="D95">
-        <v>-0.034624199291438</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.1535679191815555</v>
+      </c>
+      <c r="E95">
+        <v>0.131328658502759</v>
+      </c>
+      <c r="F95">
+        <v>0.1872063957109889</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2611,16 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2631,36 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>-0.1957508576738454</v>
+        <v>0.1884477997002178</v>
       </c>
       <c r="C98">
-        <v>0.01409245973072203</v>
+        <v>0.04096938990732134</v>
       </c>
       <c r="D98">
-        <v>-0.04762720512885393</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.1723496374701986</v>
+      </c>
+      <c r="E98">
+        <v>0.1606849838148968</v>
+      </c>
+      <c r="F98">
+        <v>-0.04126484990431646</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2671,16 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2691,56 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>-0.008133252596555179</v>
+        <v>0.006465604528679659</v>
       </c>
       <c r="C101">
-        <v>0.02604057487548018</v>
+        <v>0.0256200975165479</v>
       </c>
       <c r="D101">
-        <v>0.01516381428844775</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.02433378341508122</v>
+      </c>
+      <c r="E101">
+        <v>-0.03043094712692958</v>
+      </c>
+      <c r="F101">
+        <v>0.09007232652468411</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
-        <v>-0.1188041698047953</v>
+        <v>0.1224028066737786</v>
       </c>
       <c r="C102">
-        <v>0.07598455067073895</v>
+        <v>0.1005017840338042</v>
       </c>
       <c r="D102">
-        <v>0.03224960463238827</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>-0.05112514719690715</v>
+      </c>
+      <c r="E102">
+        <v>0.008435123827763001</v>
+      </c>
+      <c r="F102">
+        <v>0.03603605802432743</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
